--- a/final_files/Fractures.xlsx
+++ b/final_files/Fractures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed4347f28fcc6e57/문서/competition/final_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\aisafe_back\final_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B5C060-ADA5-4897-AA4F-0A7DB347C872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B1AA6-5575-4B14-9A31-1A62F6D4568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="60" windowWidth="14610" windowHeight="15480" xr2:uid="{B904F1F7-4358-4E3F-BEE1-16E68E625EBC}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{B904F1F7-4358-4E3F-BEE1-16E68E625EBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
